--- a/qnapairtest.xlsx
+++ b/qnapairtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42558297-ED44-4A8B-B699-015B3B535775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8596D8F4-A6DE-4DB1-8E56-E4020DFAEEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25120" windowHeight="16200" xr2:uid="{C9C6DDEF-4CFC-4D51-A435-2AE671BC79C9}"/>
+    <workbookView xWindow="22545" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{C9C6DDEF-4CFC-4D51-A435-2AE671BC79C9}"/>
   </bookViews>
   <sheets>
     <sheet name="qnapairtest" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>How do I sign into Citrix</t>
-  </si>
-  <si>
-    <t>Go to https://enerplus.cloud.com</t>
-  </si>
-  <si>
     <t>How do I sign into Office 365</t>
   </si>
   <si>
-    <t>Go to httpS://portal.office.com</t>
+    <t>The reception phone number is 403-298-2200</t>
+  </si>
+  <si>
+    <t>What is the Reception Phone Number?
+What is the main line
+What is the Enerplus phone number</t>
+  </si>
+  <si>
+    <t>Go to the following site https://portal.office.com</t>
   </si>
 </sst>
 </file>
@@ -81,8 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,17 +405,18 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -418,7 +424,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
